--- a/apa/obs17.xlsx
+++ b/apa/obs17.xlsx
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S4" t="n">
         <v>21</v>
